--- a/Egyéb/billofmaterials.xlsx
+++ b/Egyéb/billofmaterials.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Kristály</t>
   </si>
@@ -51,6 +51,30 @@
   </si>
   <si>
     <t>Programmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">485-1769 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JST-PH 2-pin </t>
+  </si>
+  <si>
+    <t>506-FSM4JH</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">771-BCX70H215 </t>
+  </si>
+  <si>
+    <t>Trans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">667-LNJ426W83RA </t>
+  </si>
+  <si>
+    <t>Amber Led</t>
   </si>
 </sst>
 </file>
@@ -405,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G2:I8"/>
+  <dimension ref="G2:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" t="s">
         <v>3</v>
@@ -442,7 +466,7 @@
         <v>4</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
@@ -468,6 +492,50 @@
       </c>
       <c r="I8" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Egyéb/billofmaterials.xlsx
+++ b/Egyéb/billofmaterials.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Kristály</t>
   </si>
@@ -59,9 +59,6 @@
     <t xml:space="preserve">JST-PH 2-pin </t>
   </si>
   <si>
-    <t>506-FSM4JH</t>
-  </si>
-  <si>
     <t>Button</t>
   </si>
   <si>
@@ -75,6 +72,15 @@
   </si>
   <si>
     <t>Amber Led</t>
+  </si>
+  <si>
+    <t xml:space="preserve">611-PTS810SJM250SMTR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">998-MIC5353-3.3YMTTR </t>
+  </si>
+  <si>
+    <t>Voltage regulator</t>
   </si>
 </sst>
 </file>
@@ -429,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G2:I12"/>
+  <dimension ref="G2:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -507,38 +513,50 @@
     </row>
     <row r="10" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>